--- a/Ratings/docdata.xlsx
+++ b/Ratings/docdata.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lauren\Documents\GitHub\TeamOne\Ratings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="16275" windowHeight="12330" tabRatio="902" firstSheet="2" activeTab="13"/>
   </bookViews>
@@ -26,7 +31,7 @@
     <sheet name="Crossdocs" sheetId="18" r:id="rId17"/>
     <sheet name="blah" sheetId="14" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -194,6 +199,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -228,7 +236,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -536,13 +543,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43374464"/>
-        <c:axId val="43376000"/>
+        <c:axId val="230104264"/>
+        <c:axId val="230105048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43374464"/>
+        <c:axId val="230104264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,14 +570,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43376000"/>
+        <c:crossAx val="230105048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -579,7 +584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43376000"/>
+        <c:axId val="230105048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -603,21 +608,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43374464"/>
+        <c:crossAx val="230104264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -662,7 +665,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1235,13 +1237,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52812416"/>
-        <c:axId val="65422080"/>
+        <c:axId val="297335792"/>
+        <c:axId val="297336184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52812416"/>
+        <c:axId val="297335792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,14 +1264,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65422080"/>
+        <c:crossAx val="297336184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1278,7 +1278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65422080"/>
+        <c:axId val="297336184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1302,21 +1302,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52812416"/>
+        <c:crossAx val="297335792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1361,7 +1359,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1910,13 +1907,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118327552"/>
-        <c:axId val="118333824"/>
+        <c:axId val="298217096"/>
+        <c:axId val="298217488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118327552"/>
+        <c:axId val="298217096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,14 +1934,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118333824"/>
+        <c:crossAx val="298217488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1953,7 +1948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118333824"/>
+        <c:axId val="298217488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1977,21 +1972,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118327552"/>
+        <c:crossAx val="298217096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2036,7 +2029,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2609,13 +2601,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119808384"/>
-        <c:axId val="121433088"/>
+        <c:axId val="298218272"/>
+        <c:axId val="298218664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119808384"/>
+        <c:axId val="298218272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,14 +2633,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121433088"/>
+        <c:crossAx val="298218664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2657,7 +2647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121433088"/>
+        <c:axId val="298218664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2681,21 +2671,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119808384"/>
+        <c:crossAx val="298218272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2740,7 +2728,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3313,13 +3300,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101810944"/>
-        <c:axId val="101812864"/>
+        <c:axId val="298219448"/>
+        <c:axId val="298219840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101810944"/>
+        <c:axId val="298219448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3346,14 +3332,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101812864"/>
+        <c:crossAx val="298219840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3361,7 +3346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101812864"/>
+        <c:axId val="298219840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3385,21 +3370,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101810944"/>
+        <c:crossAx val="298219448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3444,7 +3427,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4017,13 +3999,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101789696"/>
-        <c:axId val="101800576"/>
+        <c:axId val="298220624"/>
+        <c:axId val="298074184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101789696"/>
+        <c:axId val="298220624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4050,14 +4031,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101800576"/>
+        <c:crossAx val="298074184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4065,7 +4045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101800576"/>
+        <c:axId val="298074184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4089,21 +4069,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101789696"/>
+        <c:crossAx val="298220624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4148,7 +4126,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4553,13 +4530,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1452672"/>
-        <c:axId val="99634176"/>
+        <c:axId val="298074968"/>
+        <c:axId val="298075360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1452672"/>
+        <c:axId val="298074968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4586,14 +4562,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99634176"/>
+        <c:crossAx val="298075360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4601,7 +4576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99634176"/>
+        <c:axId val="298075360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4625,21 +4600,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1452672"/>
+        <c:crossAx val="298074968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4684,7 +4657,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5089,13 +5061,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132300800"/>
-        <c:axId val="132302720"/>
+        <c:axId val="298076144"/>
+        <c:axId val="298076536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132300800"/>
+        <c:axId val="298076144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5122,14 +5093,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132302720"/>
+        <c:crossAx val="298076536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5137,7 +5107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132302720"/>
+        <c:axId val="298076536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -5161,21 +5131,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132300800"/>
+        <c:crossAx val="298076144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5220,7 +5188,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5625,13 +5592,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127733760"/>
-        <c:axId val="127883136"/>
+        <c:axId val="298077320"/>
+        <c:axId val="298077712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127733760"/>
+        <c:axId val="298077320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5658,14 +5624,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127883136"/>
+        <c:crossAx val="298077712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5673,7 +5638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127883136"/>
+        <c:axId val="298077712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -5697,21 +5662,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127733760"/>
+        <c:crossAx val="298077320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6064,13 +6027,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46650112"/>
-        <c:axId val="46651648"/>
+        <c:axId val="230105832"/>
+        <c:axId val="230106224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46650112"/>
+        <c:axId val="230105832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6099,7 +6061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46651648"/>
+        <c:crossAx val="230106224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6107,7 +6069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46651648"/>
+        <c:axId val="230106224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6138,7 +6100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46650112"/>
+        <c:crossAx val="230105832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6625,13 +6587,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96674176"/>
-        <c:axId val="97602944"/>
+        <c:axId val="230107008"/>
+        <c:axId val="230107400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96674176"/>
+        <c:axId val="230107008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6660,7 +6621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97602944"/>
+        <c:crossAx val="230107400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6668,7 +6629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97602944"/>
+        <c:axId val="230107400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6699,7 +6660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96674176"/>
+        <c:crossAx val="230107008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7185,13 +7146,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96932992"/>
-        <c:axId val="96934912"/>
+        <c:axId val="230108184"/>
+        <c:axId val="297570992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96932992"/>
+        <c:axId val="230108184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7220,7 +7180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96934912"/>
+        <c:crossAx val="297570992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7228,7 +7188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96934912"/>
+        <c:axId val="297570992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -7259,7 +7219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96932992"/>
+        <c:crossAx val="230108184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7619,13 +7579,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132440448"/>
-        <c:axId val="132442368"/>
+        <c:axId val="297573736"/>
+        <c:axId val="297574128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132440448"/>
+        <c:axId val="297573736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7654,7 +7613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132442368"/>
+        <c:crossAx val="297574128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7662,7 +7621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132442368"/>
+        <c:axId val="297574128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -7693,7 +7652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132440448"/>
+        <c:crossAx val="297573736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7750,7 +7709,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8058,13 +8016,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48841088"/>
-        <c:axId val="48842624"/>
+        <c:axId val="297333048"/>
+        <c:axId val="297333440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48841088"/>
+        <c:axId val="297333048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8086,14 +8043,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48842624"/>
+        <c:crossAx val="297333440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8101,7 +8057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48842624"/>
+        <c:axId val="297333440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -8125,21 +8081,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48841088"/>
+        <c:crossAx val="297333048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8189,7 +8143,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8623,13 +8576,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57315328"/>
-        <c:axId val="57317248"/>
+        <c:axId val="297573344"/>
+        <c:axId val="297572952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57315328"/>
+        <c:axId val="297573344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8651,14 +8603,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57317248"/>
+        <c:crossAx val="297572952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8666,7 +8617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57317248"/>
+        <c:axId val="297572952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -8690,21 +8641,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57315328"/>
+        <c:crossAx val="297573344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8754,7 +8703,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9188,13 +9136,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51280896"/>
-        <c:axId val="47673344"/>
+        <c:axId val="297572168"/>
+        <c:axId val="297571776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51280896"/>
+        <c:axId val="297572168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9216,14 +9163,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47673344"/>
+        <c:crossAx val="297571776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9231,7 +9177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47673344"/>
+        <c:axId val="297571776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -9255,21 +9201,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51280896"/>
+        <c:crossAx val="297572168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9314,7 +9258,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9887,13 +9830,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99571200"/>
-        <c:axId val="99572736"/>
+        <c:axId val="297334616"/>
+        <c:axId val="297335008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99571200"/>
+        <c:axId val="297334616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9920,14 +9862,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99572736"/>
+        <c:crossAx val="297335008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9935,7 +9876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99572736"/>
+        <c:axId val="297335008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -9959,21 +9900,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99571200"/>
+        <c:crossAx val="297334616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10587,7 +10526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10622,7 +10561,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15166,7 +15105,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ratings/docdata.xlsx
+++ b/Ratings/docdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="16275" windowHeight="12270" tabRatio="902" firstSheet="6" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="255" windowWidth="16275" windowHeight="12210" tabRatio="902" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="small text" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,14 @@
     <sheet name="All Doc" sheetId="16" r:id="rId15"/>
     <sheet name="All Docx" sheetId="17" r:id="rId16"/>
     <sheet name="Crossdocs" sheetId="18" r:id="rId17"/>
-    <sheet name="blah" sheetId="14" r:id="rId18"/>
+    <sheet name="Averages" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="36">
-  <si>
-    <t>s text</t>
-  </si>
-  <si>
-    <t>m text</t>
-  </si>
-  <si>
-    <t>l text</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
   <si>
     <t>Small</t>
   </si>
@@ -577,11 +568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48956160"/>
-        <c:axId val="48958464"/>
+        <c:axId val="118566912"/>
+        <c:axId val="118568832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48956160"/>
+        <c:axId val="118566912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48958464"/>
+        <c:crossAx val="118568832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -618,7 +609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48958464"/>
+        <c:axId val="118568832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -649,7 +640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48956160"/>
+        <c:crossAx val="118566912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1105,11 +1096,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102084992"/>
-        <c:axId val="118423552"/>
+        <c:axId val="119452416"/>
+        <c:axId val="119454336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102084992"/>
+        <c:axId val="119452416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1139,12 +1130,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118423552"/>
+        <c:crossAx val="119454336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118423552"/>
+        <c:axId val="119454336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1175,7 +1166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102084992"/>
+        <c:crossAx val="119452416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1752,11 +1743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98426240"/>
-        <c:axId val="52280320"/>
+        <c:axId val="119613696"/>
+        <c:axId val="119615872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98426240"/>
+        <c:axId val="119613696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,12 +1781,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52280320"/>
+        <c:crossAx val="119615872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52280320"/>
+        <c:axId val="119615872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1826,7 +1817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98426240"/>
+        <c:crossAx val="119613696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2413,11 +2404,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100945920"/>
-        <c:axId val="52301824"/>
+        <c:axId val="119655424"/>
+        <c:axId val="119665792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100945920"/>
+        <c:axId val="119655424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2447,12 +2438,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52301824"/>
+        <c:crossAx val="119665792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52301824"/>
+        <c:axId val="119665792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2483,7 +2474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100945920"/>
+        <c:crossAx val="119655424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3046,11 +3037,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58611968"/>
-        <c:axId val="52335360"/>
+        <c:axId val="119697408"/>
+        <c:axId val="119699328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58611968"/>
+        <c:axId val="119697408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3080,12 +3071,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52335360"/>
+        <c:crossAx val="119699328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52335360"/>
+        <c:axId val="119699328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3116,7 +3107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58611968"/>
+        <c:crossAx val="119697408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3703,11 +3694,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101976704"/>
-        <c:axId val="52360704"/>
+        <c:axId val="119726848"/>
+        <c:axId val="119728768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101976704"/>
+        <c:axId val="119726848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3742,12 +3733,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52360704"/>
+        <c:crossAx val="119728768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52360704"/>
+        <c:axId val="119728768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3778,7 +3769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101976704"/>
+        <c:crossAx val="119726848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4365,11 +4356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98283520"/>
-        <c:axId val="52390144"/>
+        <c:axId val="120129024"/>
+        <c:axId val="120130944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98283520"/>
+        <c:axId val="120129024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4404,12 +4395,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52390144"/>
+        <c:crossAx val="120130944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52390144"/>
+        <c:axId val="120130944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4440,7 +4431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98283520"/>
+        <c:crossAx val="120129024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5027,11 +5018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1384832"/>
-        <c:axId val="52415488"/>
+        <c:axId val="120203520"/>
+        <c:axId val="120209792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1384832"/>
+        <c:axId val="120203520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5066,12 +5057,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52415488"/>
+        <c:crossAx val="120209792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52415488"/>
+        <c:axId val="120209792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -5102,7 +5093,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1384832"/>
+        <c:crossAx val="120203520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5561,11 +5552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52500352"/>
-        <c:axId val="52514816"/>
+        <c:axId val="120249344"/>
+        <c:axId val="120259712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52500352"/>
+        <c:axId val="120249344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5599,7 +5590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52514816"/>
+        <c:crossAx val="120259712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5607,7 +5598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52514816"/>
+        <c:axId val="120259712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -5638,7 +5629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52500352"/>
+        <c:crossAx val="120249344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6097,11 +6088,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52537984"/>
-        <c:axId val="52548352"/>
+        <c:axId val="120270848"/>
+        <c:axId val="120272768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52537984"/>
+        <c:axId val="120270848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6135,7 +6126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52548352"/>
+        <c:crossAx val="120272768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6143,7 +6134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52548352"/>
+        <c:axId val="120272768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6174,7 +6165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52537984"/>
+        <c:crossAx val="120270848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6633,11 +6624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52583808"/>
-        <c:axId val="52585984"/>
+        <c:axId val="120316672"/>
+        <c:axId val="120318592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52583808"/>
+        <c:axId val="120316672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6671,7 +6662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52585984"/>
+        <c:crossAx val="120318592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6679,7 +6670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52585984"/>
+        <c:axId val="120318592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6710,7 +6701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52583808"/>
+        <c:crossAx val="120316672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7161,11 +7152,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114987392"/>
-        <c:axId val="98223616"/>
+        <c:axId val="118599680"/>
+        <c:axId val="118601600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114987392"/>
+        <c:axId val="118599680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7195,12 +7186,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98223616"/>
+        <c:crossAx val="118601600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98223616"/>
+        <c:axId val="118601600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -7231,7 +7222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114987392"/>
+        <c:crossAx val="118599680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8445,11 +8436,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="57408896"/>
-        <c:axId val="57405824"/>
+        <c:axId val="120434688"/>
+        <c:axId val="120436224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57408896"/>
+        <c:axId val="120434688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8459,12 +8450,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57405824"/>
+        <c:crossAx val="120436224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57405824"/>
+        <c:axId val="120436224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8475,7 +8466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57408896"/>
+        <c:crossAx val="120434688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8527,7 +8518,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8847,11 +8837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57437184"/>
-        <c:axId val="62706432"/>
+        <c:axId val="118956416"/>
+        <c:axId val="118958336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57437184"/>
+        <c:axId val="118956416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8873,14 +8863,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62706432"/>
+        <c:crossAx val="118958336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8888,7 +8877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62706432"/>
+        <c:axId val="118958336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -8912,21 +8901,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57437184"/>
+        <c:crossAx val="118956416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8972,7 +8959,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9380,11 +9366,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103611776"/>
-        <c:axId val="82667392"/>
+        <c:axId val="118989184"/>
+        <c:axId val="118991104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103611776"/>
+        <c:axId val="118989184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9407,19 +9393,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82667392"/>
+        <c:crossAx val="118991104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82667392"/>
+        <c:axId val="118991104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -9443,21 +9428,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103611776"/>
+        <c:crossAx val="118989184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9502,7 +9485,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9910,11 +9892,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98603776"/>
-        <c:axId val="107361408"/>
+        <c:axId val="119116160"/>
+        <c:axId val="119118080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98603776"/>
+        <c:axId val="119116160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9936,19 +9918,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107361408"/>
+        <c:crossAx val="119118080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107361408"/>
+        <c:axId val="119118080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -9972,21 +9953,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98603776"/>
+        <c:crossAx val="119116160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10031,7 +10010,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10351,11 +10329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121367168"/>
-        <c:axId val="121741312"/>
+        <c:axId val="119161216"/>
+        <c:axId val="119163136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121367168"/>
+        <c:axId val="119161216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10377,14 +10355,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121741312"/>
+        <c:crossAx val="119163136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10392,7 +10369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121741312"/>
+        <c:axId val="119163136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -10416,21 +10393,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121367168"/>
+        <c:crossAx val="119161216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10790,11 +10765,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123604352"/>
-        <c:axId val="52114944"/>
+        <c:axId val="119255808"/>
+        <c:axId val="119257728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123604352"/>
+        <c:axId val="119255808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10823,7 +10798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52114944"/>
+        <c:crossAx val="119257728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10831,7 +10806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52114944"/>
+        <c:axId val="119257728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -10862,7 +10837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123604352"/>
+        <c:crossAx val="119255808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11317,11 +11292,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53152384"/>
-        <c:axId val="52131328"/>
+        <c:axId val="119399168"/>
+        <c:axId val="119401088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53152384"/>
+        <c:axId val="119399168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11351,12 +11326,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52131328"/>
+        <c:crossAx val="119401088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52131328"/>
+        <c:axId val="119401088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -11387,7 +11362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53152384"/>
+        <c:crossAx val="119399168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11754,11 +11729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52145536"/>
-        <c:axId val="52147712"/>
+        <c:axId val="119427840"/>
+        <c:axId val="119429760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52145536"/>
+        <c:axId val="119427840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11787,7 +11762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52147712"/>
+        <c:crossAx val="119429760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11795,7 +11770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52147712"/>
+        <c:axId val="119429760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -11826,7 +11801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52145536"/>
+        <c:crossAx val="119427840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11853,15 +11828,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11882,16 +11857,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14237,7 +14212,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -14310,7 +14285,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f>_xlfn.MODE.SNGL(B2:B11)</f>
@@ -14383,7 +14358,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MEDIAN(B2:B11)</f>
@@ -14456,7 +14431,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f>_xlfn.STDEV.P(B2:B11)</f>
@@ -14529,7 +14504,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -15187,7 +15162,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -15260,7 +15235,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f>_xlfn.MODE.SNGL(B2:B11)</f>
@@ -15333,7 +15308,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MEDIAN(B2:B11)</f>
@@ -15406,7 +15381,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f>_xlfn.STDEV.P(B2:B11)</f>
@@ -15479,7 +15454,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -16136,7 +16111,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -16209,7 +16184,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f>_xlfn.MODE.SNGL(B2:B11)</f>
@@ -16282,7 +16257,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MEDIAN(B2:B11)</f>
@@ -16355,7 +16330,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f>_xlfn.STDEV.P(B2:B11)</f>
@@ -16428,7 +16403,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -17085,7 +17060,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -17158,7 +17133,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f>_xlfn.MODE.SNGL(B2:B11)</f>
@@ -17231,7 +17206,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MEDIAN(B2:B11)</f>
@@ -17304,7 +17279,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f>_xlfn.STDEV.P(B2:B11)</f>
@@ -17377,7 +17352,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -17438,10 +17413,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17505,7 +17480,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -17561,7 +17536,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -17617,7 +17592,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -17669,6 +17644,76 @@
       </c>
       <c r="R4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>AVERAGE(B2:B4)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:R5" si="0">AVERAGE(C2:C4)</f>
+        <v>3.5333333333333332</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3.2666666666666671</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3.2333333333333329</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>3.2333333333333329</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>3.0666666666666664</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>3.0666666666666664</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>2.9666666666666668</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>2.7333333333333329</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>2.6333333333333333</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -17745,7 +17790,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>4.0999999999999996</v>
@@ -17801,7 +17846,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3.8</v>
@@ -17857,7 +17902,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -17913,7 +17958,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -17971,7 +18016,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -18027,7 +18072,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -18083,7 +18128,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -18148,7 +18193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
@@ -18212,7 +18257,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -18268,7 +18313,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>4.3</v>
@@ -18324,7 +18369,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3.7</v>
@@ -18433,7 +18478,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -18489,7 +18534,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -18545,7 +18590,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -18670,7 +18715,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -18726,7 +18771,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -18782,7 +18827,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -18846,8 +18891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18860,10 +18905,10 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -18972,7 +19017,7 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -19026,7 +19071,7 @@
         <v>1</v>
       </c>
       <c r="Z3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA3">
         <v>10</v>
@@ -19082,7 +19127,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>4.0999999999999996</v>
@@ -19136,7 +19181,7 @@
         <v>1.3</v>
       </c>
       <c r="Z4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA4">
         <v>9</v>
@@ -19192,7 +19237,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -19246,7 +19291,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA5">
         <v>10</v>
@@ -19302,7 +19347,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -19356,7 +19401,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -19412,10 +19457,10 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
@@ -19524,7 +19569,7 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -19578,7 +19623,7 @@
         <v>3</v>
       </c>
       <c r="Z27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA27">
         <v>10</v>
@@ -19634,7 +19679,7 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>3.8</v>
@@ -19688,7 +19733,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA28">
         <v>10</v>
@@ -19744,7 +19789,7 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>4.3</v>
@@ -19798,7 +19843,7 @@
         <v>0.1</v>
       </c>
       <c r="Z29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA29">
         <v>10</v>
@@ -19854,7 +19899,7 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>0.5</v>
@@ -19908,7 +19953,7 @@
         <v>0</v>
       </c>
       <c r="Z30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AA30">
         <v>1</v>
@@ -19964,10 +20009,10 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -20076,7 +20121,7 @@
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -20130,7 +20175,7 @@
         <v>3</v>
       </c>
       <c r="Z52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA52">
         <v>10</v>
@@ -20186,7 +20231,7 @@
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -20240,7 +20285,7 @@
         <v>0.3</v>
       </c>
       <c r="Z53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA53">
         <v>10</v>
@@ -20296,7 +20341,7 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B54">
         <v>3.7</v>
@@ -20350,7 +20395,7 @@
         <v>0</v>
       </c>
       <c r="Z54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA54">
         <v>9</v>
@@ -20406,7 +20451,7 @@
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>0.5</v>
@@ -20460,7 +20505,7 @@
         <v>0</v>
       </c>
       <c r="Z55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AA55">
         <v>1</v>
@@ -20569,7 +20614,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -20625,7 +20670,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -20681,7 +20726,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B79">
         <v>3.7</v>
@@ -20737,7 +20782,7 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B80">
         <v>0.5</v>
@@ -20793,7 +20838,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -20849,7 +20894,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B82">
         <v>3.8</v>
@@ -20905,7 +20950,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B83">
         <v>4.3</v>
@@ -20961,7 +21006,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B84">
         <v>0.5</v>
@@ -21017,7 +21062,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -21073,7 +21118,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B86">
         <v>4.0999999999999996</v>
@@ -21129,7 +21174,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -21185,7 +21230,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -21247,275 +21292,14 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="36" width="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
-      <c r="Z1">
-        <v>25</v>
-      </c>
-      <c r="AA1">
-        <v>50</v>
-      </c>
-      <c r="AB1">
-        <v>100</v>
-      </c>
-      <c r="AC1">
-        <v>500</v>
-      </c>
-      <c r="AD1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2.6</v>
-      </c>
-      <c r="D2">
-        <v>2.6</v>
-      </c>
-      <c r="E2">
-        <v>1.8</v>
-      </c>
-      <c r="F2">
-        <v>1.7</v>
-      </c>
-      <c r="G2">
-        <v>1.8</v>
-      </c>
-      <c r="H2">
-        <v>1.6</v>
-      </c>
-      <c r="I2">
-        <v>1.6</v>
-      </c>
-      <c r="J2">
-        <v>1.6</v>
-      </c>
-      <c r="K2">
-        <v>1.5</v>
-      </c>
-      <c r="P2">
-        <v>1.3</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>3.9</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>3.6</v>
-      </c>
-      <c r="I3">
-        <v>3.7</v>
-      </c>
-      <c r="J3">
-        <v>3.5</v>
-      </c>
-      <c r="K3">
-        <v>3.7</v>
-      </c>
-      <c r="P3">
-        <v>3.7</v>
-      </c>
-      <c r="U3">
-        <v>3.3</v>
-      </c>
-      <c r="Z3">
-        <v>3.3</v>
-      </c>
-      <c r="AA3">
-        <v>3.2</v>
-      </c>
-      <c r="AB3">
-        <v>3</v>
-      </c>
-      <c r="AC3">
-        <v>3</v>
-      </c>
-      <c r="AD3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>3.9</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>3.9</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>3.9</v>
-      </c>
-      <c r="U4">
-        <v>3.7</v>
-      </c>
-      <c r="Z4">
-        <v>3.9</v>
-      </c>
-      <c r="AA4">
-        <v>3.7</v>
-      </c>
-      <c r="AB4">
-        <v>3</v>
-      </c>
-      <c r="AC4">
-        <v>3</v>
-      </c>
-      <c r="AD4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22118,7 +21902,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -22191,7 +21975,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f>_xlfn.MODE.SNGL(B2:B11)</f>
@@ -22264,7 +22048,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MEDIAN(B2:B11)</f>
@@ -22337,7 +22121,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f>_xlfn.STDEV.P(B2:B11)</f>
@@ -22410,7 +22194,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -23067,7 +22851,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -23140,7 +22924,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f>_xlfn.MODE.SNGL(B2:B11)</f>
@@ -23213,7 +22997,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MEDIAN(B2:B11)</f>
@@ -23286,7 +23070,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f>_xlfn.STDEV.P(B2:B11)</f>
@@ -23359,7 +23143,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -24016,7 +23800,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -24089,7 +23873,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f>_xlfn.MODE.SNGL(B2:B11)</f>
@@ -24162,7 +23946,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MEDIAN(B2:B11)</f>
@@ -24235,7 +24019,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f>_xlfn.STDEV.P(B2:B11)</f>
@@ -24308,7 +24092,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -24965,7 +24749,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -25038,7 +24822,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f>_xlfn.MODE.SNGL(B2:B11)</f>
@@ -25111,7 +24895,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MEDIAN(B2:B11)</f>
@@ -25184,7 +24968,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f>_xlfn.STDEV.P(B2:B11)</f>
@@ -25257,7 +25041,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -25914,7 +25698,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -25987,7 +25771,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f>_xlfn.MODE.SNGL(B2:B11)</f>
@@ -26060,7 +25844,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MEDIAN(B2:B11)</f>
@@ -26133,7 +25917,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f>_xlfn.STDEV.P(B2:B11)</f>
@@ -26206,7 +25990,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -26863,7 +26647,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -26936,7 +26720,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f>_xlfn.MODE.SNGL(B2:B11)</f>
@@ -27009,7 +26793,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MEDIAN(B2:B11)</f>
@@ -27082,7 +26866,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f>_xlfn.STDEV.P(B2:B11)</f>
@@ -27155,7 +26939,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -27812,7 +27596,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -27885,7 +27669,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f>_xlfn.MODE.SNGL(B2:B11)</f>
@@ -27958,7 +27742,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MEDIAN(B2:B11)</f>
@@ -28031,7 +27815,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f>_xlfn.STDEV.P(B2:B11)</f>
@@ -28104,7 +27888,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -28761,7 +28545,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -28834,7 +28618,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f>_xlfn.MODE.SNGL(B2:B11)</f>
@@ -28907,7 +28691,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MEDIAN(B2:B11)</f>
@@ -28980,7 +28764,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f>_xlfn.STDEV.P(B2:B11)</f>
@@ -29053,7 +28837,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>9</v>
